--- a/biology/Zoologie/Gerbillus_aquilus/Gerbillus_aquilus.xlsx
+++ b/biology/Zoologie/Gerbillus_aquilus/Gerbillus_aquilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus aquilus ou Gerbillus (Gerbillus) aquilus est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans l'est de l'Iran, dans le sud de l'Afghanistan et dans les plaines de l'ouest du Pakistan.
 </t>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Schlitter &amp; Setzer, 1972 : New rodents (Mammalia: Cricetidae, Muridae) from Iran and Pakistan. Proceedings of the Biological Society of Washington, vol. 86, n. 14, p. 163-173.</t>
         </is>
